--- a/single_pro.xlsx
+++ b/single_pro.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5CCAAC-409C-4491-93DC-8E6AE101D954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F923C50-A6CC-4E78-AC62-4FF0B2E76B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2088" windowWidth="17244" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2064" yWindow="2556" windowWidth="17244" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="73">
   <si>
     <t>见课本 P6 最后两行。</t>
   </si>
@@ -100,16 +100,7 @@
     <t>其余三项均陷入唯心主义的误区。</t>
   </si>
   <si>
-    <t>这一题体现了意识对于实践的指导作用，意识指导下的活动可以创造出世界上原来所没有的东西。参考 P27 第一行。</t>
-  </si>
-  <si>
     <t>这一题体现了意识对于实践的指导作用，意识指导下的活动</t>
-  </si>
-  <si>
-    <t>可以创造出世界上原来所没有的东西。参考 P27 第一</t>
-  </si>
-  <si>
-    <t>行。</t>
   </si>
   <si>
     <t>了解诗句含义即可。</t>
@@ -241,6 +232,18 @@
   </si>
   <si>
     <t>前者看到了运动的绝对性与静止的相对性——河流是一直流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一题体现了意识对于实践的指导作用，意识指导下的活动可以创造出世界上原来所没有的东西。参考P27第一行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以创造出世界上原来所没有的东西。参考P27第一行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -646,19 +649,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,13 +689,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,10 +709,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,13 +723,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,13 +740,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,13 +757,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,13 +774,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,13 +791,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,13 +808,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -856,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -893,10 +896,10 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,10 +913,10 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -924,47 +927,47 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,132 +978,132 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,47 +1114,47 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,13 +1165,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,30 +1182,30 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,13 +1216,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1230,13 +1233,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1264,13 +1267,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,13 +1284,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1298,13 +1301,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,47 +1318,47 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1366,13 +1369,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,13 +1386,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,13 +1403,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,13 +1420,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,13 +1437,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,13 +1454,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,13 +1471,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,13 +1488,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,13 +1505,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,13 +1522,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,13 +1539,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,13 +1556,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,13 +1573,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,13 +1590,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,13 +1607,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,30 +1624,30 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1655,13 +1658,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1672,13 +1675,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1689,13 +1692,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,13 +1709,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,13 +1726,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,13 +1743,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,13 +1760,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,13 +1777,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,13 +1794,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,13 +1811,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,13 +1828,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,13 +1845,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,13 +1862,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,13 +1879,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1893,13 +1896,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,13 +1913,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E75" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,13 +1930,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1944,13 +1947,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1961,13 +1964,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1978,13 +1981,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,13 +1998,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,13 +2015,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E81" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2029,13 +2032,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E82" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2046,13 +2049,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
